--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ace-Bdkrb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ace-Bdkrb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,51 +540,51 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>39.447365</v>
+        <v>53.74035766666666</v>
       </c>
       <c r="H2">
-        <v>118.342095</v>
+        <v>161.221073</v>
       </c>
       <c r="I2">
-        <v>0.381567221408747</v>
+        <v>0.4609242213031295</v>
       </c>
       <c r="J2">
-        <v>0.3841102728938004</v>
+        <v>0.4621087068901442</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.642212666666667</v>
+        <v>0.9242423333333334</v>
       </c>
       <c r="N2">
-        <v>4.926638000000001</v>
+        <v>2.772727</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.7379131210038523</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.8085498937233963</v>
       </c>
       <c r="Q2">
-        <v>64.78096246962333</v>
+        <v>49.66911356400789</v>
       </c>
       <c r="R2">
-        <v>583.0286622266101</v>
+        <v>447.022022076071</v>
       </c>
       <c r="S2">
-        <v>0.381567221408747</v>
+        <v>0.3401220306880626</v>
       </c>
       <c r="T2">
-        <v>0.3841102728938004</v>
+        <v>0.3736379458446822</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,51 +602,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>54.64926166666667</v>
+        <v>53.74035766666666</v>
       </c>
       <c r="H3">
-        <v>163.947785</v>
+        <v>161.221073</v>
       </c>
       <c r="I3">
-        <v>0.5286124162206919</v>
+        <v>0.4609242213031295</v>
       </c>
       <c r="J3">
-        <v>0.5321354876866436</v>
+        <v>0.4621087068901442</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.642212666666667</v>
+        <v>0.328266</v>
       </c>
       <c r="N3">
-        <v>4.926638000000001</v>
+        <v>0.656532</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.2620868789961477</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.1914501062766038</v>
       </c>
       <c r="Q3">
-        <v>89.74570973298111</v>
+        <v>17.641132249806</v>
       </c>
       <c r="R3">
-        <v>807.7113875968301</v>
+        <v>105.846793498836</v>
       </c>
       <c r="S3">
-        <v>0.5286124162206919</v>
+        <v>0.1208021906150669</v>
       </c>
       <c r="T3">
-        <v>0.5321354876866436</v>
+        <v>0.08847076104546206</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -664,51 +664,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.463205333333333</v>
+        <v>54.64926166666667</v>
       </c>
       <c r="H4">
-        <v>10.389616</v>
+        <v>163.947785</v>
       </c>
       <c r="I4">
-        <v>0.03349895832606192</v>
+        <v>0.4687197754570081</v>
       </c>
       <c r="J4">
-        <v>0.03372222062674989</v>
+        <v>0.4699242941017605</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.642212666666667</v>
+        <v>0.9242423333333334</v>
       </c>
       <c r="N4">
-        <v>4.926638000000001</v>
+        <v>2.772727</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.7379131210038523</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.8085498937233963</v>
       </c>
       <c r="Q4">
-        <v>5.687319665667555</v>
+        <v>50.50916111774389</v>
       </c>
       <c r="R4">
-        <v>51.18587699100801</v>
+        <v>454.5824500596951</v>
       </c>
       <c r="S4">
-        <v>0.03349895832606192</v>
+        <v>0.3458744723837057</v>
       </c>
       <c r="T4">
-        <v>0.03372222062674989</v>
+        <v>0.3799572380540204</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.053371</v>
+        <v>54.64926166666667</v>
       </c>
       <c r="H5">
-        <v>4.106742</v>
+        <v>163.947785</v>
       </c>
       <c r="I5">
-        <v>0.01986188600914916</v>
+        <v>0.4687197754570081</v>
       </c>
       <c r="J5">
-        <v>0.01332950705600092</v>
+        <v>0.4699242941017605</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.642212666666667</v>
+        <v>0.328266</v>
       </c>
       <c r="N5">
-        <v>4.926638000000001</v>
+        <v>0.656532</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.2620868789961477</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.1914501062766038</v>
       </c>
       <c r="Q5">
-        <v>3.372071865566</v>
+        <v>17.93949453027</v>
       </c>
       <c r="R5">
-        <v>20.232431193396</v>
+        <v>107.63696718162</v>
       </c>
       <c r="S5">
-        <v>0.01986188600914916</v>
+        <v>0.1228453030733024</v>
       </c>
       <c r="T5">
-        <v>0.01332950705600092</v>
+        <v>0.08996705604774005</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -788,46 +788,356 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.769275333333333</v>
+        <v>5.296475666666667</v>
       </c>
       <c r="H6">
-        <v>11.307826</v>
+        <v>15.889427</v>
       </c>
       <c r="I6">
-        <v>0.03645951803534987</v>
+        <v>0.04542719900473509</v>
       </c>
       <c r="J6">
-        <v>0.03670251173680516</v>
+        <v>0.04554393806940699</v>
       </c>
       <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.9242423333333334</v>
+      </c>
+      <c r="N6">
+        <v>2.772727</v>
+      </c>
+      <c r="O6">
+        <v>0.7379131210038523</v>
+      </c>
+      <c r="P6">
+        <v>0.8085498937233963</v>
+      </c>
+      <c r="Q6">
+        <v>4.895227028603222</v>
+      </c>
+      <c r="R6">
+        <v>44.057043257429</v>
+      </c>
+      <c r="S6">
+        <v>0.03352132619604716</v>
+      </c>
+      <c r="T6">
+        <v>0.03682454628576397</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
         <v>3</v>
       </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>1.642212666666667</v>
-      </c>
-      <c r="N6">
-        <v>4.926638000000001</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>6.189951696554223</v>
-      </c>
-      <c r="R6">
-        <v>55.70956526898801</v>
-      </c>
-      <c r="S6">
-        <v>0.03645951803534987</v>
-      </c>
-      <c r="T6">
-        <v>0.03670251173680516</v>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>5.296475666666667</v>
+      </c>
+      <c r="H7">
+        <v>15.889427</v>
+      </c>
+      <c r="I7">
+        <v>0.04542719900473509</v>
+      </c>
+      <c r="J7">
+        <v>0.04554393806940699</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.328266</v>
+      </c>
+      <c r="N7">
+        <v>0.656532</v>
+      </c>
+      <c r="O7">
+        <v>0.2620868789961477</v>
+      </c>
+      <c r="P7">
+        <v>0.1914501062766038</v>
+      </c>
+      <c r="Q7">
+        <v>1.738652881194</v>
+      </c>
+      <c r="R7">
+        <v>10.431917287164</v>
+      </c>
+      <c r="S7">
+        <v>0.01190587280868793</v>
+      </c>
+      <c r="T7">
+        <v>0.008719391783643029</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.896557</v>
+      </c>
+      <c r="H8">
+        <v>1.793114</v>
+      </c>
+      <c r="I8">
+        <v>0.007689655503264204</v>
+      </c>
+      <c r="J8">
+        <v>0.005139610948046563</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.9242423333333334</v>
+      </c>
+      <c r="N8">
+        <v>2.772727</v>
+      </c>
+      <c r="O8">
+        <v>0.7379131210038523</v>
+      </c>
+      <c r="P8">
+        <v>0.8085498937233963</v>
+      </c>
+      <c r="Q8">
+        <v>0.8286359336463335</v>
+      </c>
+      <c r="R8">
+        <v>4.971815601878</v>
+      </c>
+      <c r="S8">
+        <v>0.005674297691858138</v>
+      </c>
+      <c r="T8">
+        <v>0.004155631885822653</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.896557</v>
+      </c>
+      <c r="H9">
+        <v>1.793114</v>
+      </c>
+      <c r="I9">
+        <v>0.007689655503264204</v>
+      </c>
+      <c r="J9">
+        <v>0.005139610948046563</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.328266</v>
+      </c>
+      <c r="N9">
+        <v>0.656532</v>
+      </c>
+      <c r="O9">
+        <v>0.2620868789961477</v>
+      </c>
+      <c r="P9">
+        <v>0.1914501062766038</v>
+      </c>
+      <c r="Q9">
+        <v>0.294309180162</v>
+      </c>
+      <c r="R9">
+        <v>1.177236720648</v>
+      </c>
+      <c r="S9">
+        <v>0.002015357811406067</v>
+      </c>
+      <c r="T9">
+        <v>0.0009839790622239108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2.009957333333333</v>
+      </c>
+      <c r="H10">
+        <v>6.029872</v>
+      </c>
+      <c r="I10">
+        <v>0.01723914873186302</v>
+      </c>
+      <c r="J10">
+        <v>0.01728344999064166</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.9242423333333334</v>
+      </c>
+      <c r="N10">
+        <v>2.772727</v>
+      </c>
+      <c r="O10">
+        <v>0.7379131210038523</v>
+      </c>
+      <c r="P10">
+        <v>0.8085498937233963</v>
+      </c>
+      <c r="Q10">
+        <v>1.857687655660445</v>
+      </c>
+      <c r="R10">
+        <v>16.719188900944</v>
+      </c>
+      <c r="S10">
+        <v>0.01272099404417864</v>
+      </c>
+      <c r="T10">
+        <v>0.01397453165310695</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2.009957333333333</v>
+      </c>
+      <c r="H11">
+        <v>6.029872</v>
+      </c>
+      <c r="I11">
+        <v>0.01723914873186302</v>
+      </c>
+      <c r="J11">
+        <v>0.01728344999064166</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.328266</v>
+      </c>
+      <c r="N11">
+        <v>0.656532</v>
+      </c>
+      <c r="O11">
+        <v>0.2620868789961477</v>
+      </c>
+      <c r="P11">
+        <v>0.1914501062766038</v>
+      </c>
+      <c r="Q11">
+        <v>0.659800653984</v>
+      </c>
+      <c r="R11">
+        <v>3.958803923904</v>
+      </c>
+      <c r="S11">
+        <v>0.004518154687684376</v>
+      </c>
+      <c r="T11">
+        <v>0.003308918337534712</v>
       </c>
     </row>
   </sheetData>
